--- a/report/lab_4/data.xlsx
+++ b/report/lab_4/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xoepe\Documents\ECE303\report\lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2777A2-A9DE-429A-BE7D-D0628E66314B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D5D3F-554F-426D-8907-8EF923186B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{A9081A4D-6623-45BE-A5E7-61C4D64EFFD9}"/>
   </bookViews>
@@ -1114,69 +1114,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.94</c:v>
+                  <c:v>633.9869281045751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,69 +1199,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$45</c:f>
+              <c:f>Sheet1!$D$26:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1</c:v>
+                  <c:v>724.13793103448279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,69 +1284,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$49:$C$68</c:f>
+              <c:f>Sheet1!$D$49:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.71</c:v>
+                  <c:v>1183.406113537118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,69 +1372,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$72:$C$91</c:f>
+              <c:f>Sheet1!$D$72:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>1024.2914979757084</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.52</c:v>
+                  <c:v>1016.1290322580646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,69 +1457,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$95:$C$114</c:f>
+              <c:f>Sheet1!$D$95:$D$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.79</c:v>
+                  <c:v>1262.4434389140274</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.78</c:v>
+                  <c:v>1252.2522522522522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,7 +1686,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Voltage (V)</a:t>
+                  <a:t> Resistance (Ohm)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3476,7 +3434,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Photocell Resistance (Ohms)</a:t>
+                  <a:t>Photocell Resistance (Ohm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7708,15 +7666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>824845</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>58916</xdr:rowOff>
+      <xdr:colOff>1217751</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1133691</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89357</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8045,8 +8003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6B3F3F-C515-4AFF-9C80-36DAFE60DF03}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="80" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8216,15 +8174,15 @@
         <v>1.94</v>
       </c>
       <c r="D6">
-        <f>5000 / B6 - 1000</f>
+        <f t="shared" ref="D6:D22" si="6">5000 / B6 - 1000</f>
         <v>633.9869281045751</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E22" si="6">B6/1000 + C6/D6</f>
+        <f t="shared" ref="E6:E22" si="7">B6/1000 + C6/D6</f>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F4:F22" si="7">C6/D6</f>
+        <f t="shared" ref="F6:F22" si="8">C6/D6</f>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G6">
@@ -8256,15 +8214,15 @@
         <v>1.94</v>
       </c>
       <c r="D7">
-        <f>5000 / B7 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G7">
@@ -8296,15 +8254,15 @@
         <v>1.94</v>
       </c>
       <c r="D8">
-        <f>5000 / B8 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G8">
@@ -8336,15 +8294,15 @@
         <v>1.94</v>
       </c>
       <c r="D9">
-        <f>5000 / B9 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G9">
@@ -8376,15 +8334,15 @@
         <v>1.94</v>
       </c>
       <c r="D10">
-        <f>5000 / B10 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G10">
@@ -8416,15 +8374,15 @@
         <v>1.94</v>
       </c>
       <c r="D11">
-        <f>5000 / B11 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G11">
@@ -8456,15 +8414,15 @@
         <v>1.94</v>
       </c>
       <c r="D12">
-        <f>5000 / B12 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G12">
@@ -8496,15 +8454,15 @@
         <v>1.94</v>
       </c>
       <c r="D13">
-        <f>5000 / B13 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G13">
@@ -8536,15 +8494,15 @@
         <v>1.94</v>
       </c>
       <c r="D14">
-        <f>5000 / B14 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G14">
@@ -8576,15 +8534,15 @@
         <v>1.94</v>
       </c>
       <c r="D15">
-        <f>5000 / B15 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G15">
@@ -8616,15 +8574,15 @@
         <v>1.94</v>
       </c>
       <c r="D16">
-        <f>5000 / B16 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G16">
@@ -8656,15 +8614,15 @@
         <v>1.94</v>
       </c>
       <c r="D17">
-        <f>5000 / B17 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G17">
@@ -8696,15 +8654,15 @@
         <v>1.94</v>
       </c>
       <c r="D18">
-        <f>5000 / B18 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G18">
@@ -8736,15 +8694,15 @@
         <v>1.94</v>
       </c>
       <c r="D19">
-        <f>5000 / B19 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G19">
@@ -8776,15 +8734,15 @@
         <v>1.94</v>
       </c>
       <c r="D20">
-        <f>5000 / B20 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G20">
@@ -8816,15 +8774,15 @@
         <v>1.94</v>
       </c>
       <c r="D21">
-        <f>5000 / B21 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G21">
@@ -8856,15 +8814,15 @@
         <v>1.94</v>
       </c>
       <c r="D22">
-        <f>5000 / B22 - 1000</f>
+        <f t="shared" si="6"/>
         <v>633.9869281045751</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1200000000000004E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="G22">
@@ -8950,7 +8908,7 @@
         <v>253157.89473684208</v>
       </c>
       <c r="J26">
-        <f>H26/I26</f>
+        <f t="shared" ref="J26:J45" si="9">H26/I26</f>
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
@@ -8963,11 +8921,11 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C45" si="8">5-B27</f>
+        <f t="shared" ref="C27:C45" si="10">5-B27</f>
         <v>5</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E28" si="9">B27/1000</f>
+        <f t="shared" ref="E27:E28" si="11">B27/1000</f>
         <v>0</v>
       </c>
       <c r="F27">
@@ -8977,32 +8935,32 @@
         <v>0.45</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H45" si="10">5-G27</f>
+        <f t="shared" ref="H27:H45" si="12">5-G27</f>
         <v>4.55</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I45" si="11">50000 /G27 - 10000</f>
+        <f t="shared" ref="I27:I45" si="13">50000 /G27 - 10000</f>
         <v>101111.11111111111</v>
       </c>
       <c r="J27">
-        <f>H27/I27</f>
+        <f t="shared" si="9"/>
         <v>4.4999999999999996E-5</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" ref="A28:A44" si="12">A27+5</f>
+        <f t="shared" ref="A28:A44" si="14">A27+5</f>
         <v>15</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -9012,575 +8970,575 @@
         <v>0.67</v>
       </c>
       <c r="H28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.33</v>
       </c>
       <c r="I28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>64626.86567164179</v>
       </c>
       <c r="J28">
-        <f>H28/I28</f>
+        <f t="shared" si="9"/>
         <v>6.7000000000000002E-5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="B29">
         <v>2.9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D29">
-        <f>5000 / B29 - 1000</f>
+        <f t="shared" ref="D29:D45" si="15">5000 / B29 - 1000</f>
         <v>724.13793103448279</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E45" si="13">B29/1000 + C29/D29</f>
+        <f t="shared" ref="E29:E45" si="16">B29/1000 + C29/D29</f>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F45" si="14">C29/D29</f>
+        <f t="shared" ref="F29:F45" si="17">C29/D29</f>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G29">
         <v>0.86</v>
       </c>
       <c r="H29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="I29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48139.534883720931</v>
       </c>
       <c r="J29">
-        <f>H29/I29</f>
+        <f t="shared" si="9"/>
         <v>8.599999999999999E-5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="B30">
         <v>2.9</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D30">
-        <f>5000 / B30 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G30">
         <v>1.02</v>
       </c>
       <c r="H30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.98</v>
       </c>
       <c r="I30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39019.607843137252</v>
       </c>
       <c r="J30">
-        <f>H30/I30</f>
+        <f t="shared" si="9"/>
         <v>1.0200000000000001E-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="B31">
         <v>2.9</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D31">
-        <f>5000 / B31 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G31">
         <v>1.1599999999999999</v>
       </c>
       <c r="H31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.84</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33103.448275862072</v>
       </c>
       <c r="J31">
-        <f>H31/I31</f>
+        <f t="shared" si="9"/>
         <v>1.1599999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="B32">
         <v>2.9</v>
       </c>
       <c r="C32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D32">
-        <f>5000 / B32 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G32">
         <v>1.29</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.71</v>
       </c>
       <c r="I32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28759.689922480618</v>
       </c>
       <c r="J32">
-        <f>H32/I32</f>
+        <f t="shared" si="9"/>
         <v>1.2900000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="B33">
         <v>2.9</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D33">
-        <f>5000 / B33 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G33">
         <v>1.4</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25714.285714285717</v>
       </c>
       <c r="J33">
-        <f>H33/I33</f>
+        <f t="shared" si="9"/>
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="B34">
         <v>2.9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D34">
-        <f>5000 / B34 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G34">
         <v>1.51</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.49</v>
       </c>
       <c r="I34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23112.582781456957</v>
       </c>
       <c r="J34">
-        <f>H34/I34</f>
+        <f t="shared" si="9"/>
         <v>1.5099999999999998E-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="B35">
         <v>2.9</v>
       </c>
       <c r="C35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D35">
-        <f>5000 / B35 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G35">
         <v>1.6</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.4</v>
       </c>
       <c r="I35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21250</v>
       </c>
       <c r="J35">
-        <f>H35/I35</f>
+        <f t="shared" si="9"/>
         <v>1.5999999999999999E-4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="B36">
         <v>2.9</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D36">
-        <f>5000 / B36 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G36">
         <v>1.68</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3200000000000003</v>
       </c>
       <c r="I36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19761.904761904763</v>
       </c>
       <c r="J36">
-        <f>H36/I36</f>
+        <f t="shared" si="9"/>
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="B37">
         <v>2.9</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D37">
-        <f>5000 / B37 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G37">
         <v>1.76</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.24</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18409.090909090908</v>
       </c>
       <c r="J37">
-        <f>H37/I37</f>
+        <f t="shared" si="9"/>
         <v>1.7600000000000002E-4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
       <c r="B38">
         <v>2.9</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D38">
-        <f>5000 / B38 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G38">
         <v>1.83</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.17</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17322.4043715847</v>
       </c>
       <c r="J38">
-        <f>H38/I38</f>
+        <f t="shared" si="9"/>
         <v>1.8299999999999998E-4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="B39">
         <v>2.9</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D39">
-        <f>5000 / B39 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G39">
         <v>1.9</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16315.78947368421</v>
       </c>
       <c r="J39">
-        <f>H39/I39</f>
+        <f t="shared" si="9"/>
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="B40">
         <v>2.9</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D40">
-        <f>5000 / B40 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G40">
         <v>1.96</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.04</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15510.204081632655</v>
       </c>
       <c r="J40">
-        <f>H40/I40</f>
+        <f t="shared" si="9"/>
         <v>1.9599999999999997E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="B41">
         <v>2.9</v>
       </c>
       <c r="C41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D41">
-        <f>5000 / B41 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G41">
         <v>2.0099999999999998</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.99</v>
       </c>
       <c r="I41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14875.621890547267</v>
       </c>
       <c r="J41">
-        <f>H41/I41</f>
+        <f t="shared" si="9"/>
         <v>2.0099999999999998E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="B42">
         <v>2.9</v>
       </c>
       <c r="C42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D42">
-        <f>5000 / B42 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G42">
         <v>2.0699999999999998</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.93</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14154.589371980677</v>
       </c>
       <c r="J42">
-        <f>H42/I42</f>
+        <f t="shared" si="9"/>
         <v>2.0699999999999999E-4</v>
       </c>
     </row>
@@ -9593,74 +9551,74 @@
         <v>2.9</v>
       </c>
       <c r="C43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D43">
-        <f>5000 / B43 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G43">
         <v>2.12</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.88</v>
       </c>
       <c r="I43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13584.905660377357</v>
       </c>
       <c r="J43">
-        <f>H43/I43</f>
+        <f t="shared" si="9"/>
         <v>2.12E-4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="B44">
         <v>2.9</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D44">
-        <f>5000 / B44 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G44">
         <v>2.16</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.84</v>
       </c>
       <c r="I44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13148.148148148146</v>
       </c>
       <c r="J44">
-        <f>H44/I44</f>
+        <f t="shared" si="9"/>
         <v>2.1600000000000002E-4</v>
       </c>
     </row>
@@ -9673,34 +9631,34 @@
         <v>2.9</v>
       </c>
       <c r="C45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="D45">
-        <f>5000 / B45 - 1000</f>
+        <f t="shared" si="15"/>
         <v>724.13793103448279</v>
       </c>
       <c r="E45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="G45">
         <v>2.2000000000000002</v>
       </c>
       <c r="H45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="I45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12727.272727272724</v>
       </c>
       <c r="J45">
-        <f>H45/I45</f>
+        <f t="shared" si="9"/>
         <v>2.2000000000000003E-4</v>
       </c>
     </row>
@@ -9788,11 +9746,11 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C68" si="15">5-B50</f>
+        <f t="shared" ref="C50:C68" si="18">5-B50</f>
         <v>5</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:E51" si="16">B50/1000</f>
+        <f t="shared" ref="E50:E51" si="19">B50/1000</f>
         <v>0</v>
       </c>
       <c r="F50">
@@ -9802,32 +9760,32 @@
         <v>1.78</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:H68" si="17">5-G50</f>
+        <f t="shared" ref="H50:H68" si="20">5-G50</f>
         <v>3.2199999999999998</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50:I68" si="18">50000 / G50 - 10000</f>
+        <f t="shared" ref="I50:I68" si="21">50000 / G50 - 10000</f>
         <v>18089.887640449437</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:J68" si="19">H50/I50</f>
+        <f t="shared" ref="J50:J68" si="22">H50/I50</f>
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
-        <f t="shared" ref="A51:A67" si="20">A50+5</f>
+        <f t="shared" ref="A51:A67" si="23">A50+5</f>
         <v>15</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -9837,575 +9795,575 @@
         <v>2.17</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.83</v>
       </c>
       <c r="I51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13041.474654377882</v>
       </c>
       <c r="J51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.1699999999999999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="B52">
         <v>2.29</v>
       </c>
       <c r="C52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D52">
-        <f>5000 / B52 - 1000</f>
+        <f t="shared" ref="D52:D68" si="24">5000 / B52 - 1000</f>
         <v>1183.406113537118</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52:E68" si="21">B52/1000 + C52/D52</f>
+        <f t="shared" ref="E52:E68" si="25">B52/1000 + C52/D52</f>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:F68" si="22">C52/D52</f>
+        <f t="shared" ref="F52:F68" si="26">C52/D52</f>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G52">
         <v>2.4</v>
       </c>
       <c r="H52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.6</v>
       </c>
       <c r="I52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10833.333333333336</v>
       </c>
       <c r="J52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.3999999999999995E-4</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="B53">
         <v>2.29</v>
       </c>
       <c r="C53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D53">
-        <f>5000 / B53 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G53">
         <v>2.59</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.41</v>
       </c>
       <c r="I53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9305.0193050193047</v>
       </c>
       <c r="J53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.5900000000000001E-4</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="B54">
         <v>2.29</v>
       </c>
       <c r="C54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D54">
-        <f>5000 / B54 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G54">
         <v>2.73</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.27</v>
       </c>
       <c r="I54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>8315.0183150183148</v>
       </c>
       <c r="J54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
       <c r="B55">
         <v>2.29</v>
       </c>
       <c r="C55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D55">
-        <f>5000 / B55 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G55">
         <v>2.83</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.17</v>
       </c>
       <c r="I55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7667.8445229681965</v>
       </c>
       <c r="J55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.8300000000000005E-4</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="B56">
         <v>2.29</v>
       </c>
       <c r="C56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D56">
-        <f>5000 / B56 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G56">
         <v>2.92</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.08</v>
       </c>
       <c r="I56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7123.2876712328762</v>
       </c>
       <c r="J56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.9200000000000005E-4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
       <c r="B57">
         <v>2.29</v>
       </c>
       <c r="C57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D57">
-        <f>5000 / B57 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G57">
         <v>2.99</v>
       </c>
       <c r="H57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="I57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6722.4080267558529</v>
       </c>
       <c r="J57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.9899999999999995E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="B58">
         <v>2.29</v>
       </c>
       <c r="C58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D58">
-        <f>5000 / B58 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G58">
         <v>3.05</v>
       </c>
       <c r="H58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="I58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6393.4426229508208</v>
       </c>
       <c r="J58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.0499999999999999E-4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="B59">
         <v>2.29</v>
       </c>
       <c r="C59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D59">
-        <f>5000 / B59 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G59">
         <v>3.1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9</v>
       </c>
       <c r="I59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6129.0322580645152</v>
       </c>
       <c r="J59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.1000000000000005E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="B60">
         <v>2.29</v>
       </c>
       <c r="C60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D60">
-        <f>5000 / B60 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G60">
         <v>3.15</v>
       </c>
       <c r="H60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.85</v>
       </c>
       <c r="I60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5873.0158730158728</v>
       </c>
       <c r="J60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>65</v>
       </c>
       <c r="B61">
         <v>2.29</v>
       </c>
       <c r="C61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D61">
-        <f>5000 / B61 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G61">
         <v>3.19</v>
       </c>
       <c r="H61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.81</v>
       </c>
       <c r="I61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5673.9811912225705</v>
       </c>
       <c r="J61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.19E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="B62">
         <v>2.29</v>
       </c>
       <c r="C62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D62">
-        <f>5000 / B62 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G62">
         <v>3.23</v>
       </c>
       <c r="H62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.77</v>
       </c>
       <c r="I62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5479.8761609907124</v>
       </c>
       <c r="J62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.2299999999999999E-4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
       <c r="B63">
         <v>2.29</v>
       </c>
       <c r="C63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D63">
-        <f>5000 / B63 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G63">
         <v>3.26</v>
       </c>
       <c r="H63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="I63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5337.4233128834367</v>
       </c>
       <c r="J63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.2599999999999996E-4</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="B64">
         <v>2.29</v>
       </c>
       <c r="C64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D64">
-        <f>5000 / B64 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G64">
         <v>3.29</v>
       </c>
       <c r="H64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.71</v>
       </c>
       <c r="I64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5197.5683890577511</v>
       </c>
       <c r="J64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>85</v>
       </c>
       <c r="B65">
         <v>2.29</v>
       </c>
       <c r="C65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D65">
-        <f>5000 / B65 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G65">
         <v>3.32</v>
       </c>
       <c r="H65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6800000000000002</v>
       </c>
       <c r="I65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5060.2409638554218</v>
       </c>
       <c r="J65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.3200000000000005E-4</v>
       </c>
     </row>
@@ -10418,74 +10376,74 @@
         <v>2.29</v>
       </c>
       <c r="C66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D66">
-        <f>5000 / B66 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G66">
         <v>3.34</v>
       </c>
       <c r="H66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="I66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4970.0598802395216</v>
       </c>
       <c r="J66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.3399999999999999E-4</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
       <c r="B67">
         <v>2.29</v>
       </c>
       <c r="C67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D67">
-        <f>5000 / B67 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E67">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G67">
         <v>3.37</v>
       </c>
       <c r="H67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.63</v>
       </c>
       <c r="I67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4836.7952522255182</v>
       </c>
       <c r="J67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.3700000000000006E-4</v>
       </c>
     </row>
@@ -10498,34 +10456,34 @@
         <v>2.29</v>
       </c>
       <c r="C68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.71</v>
       </c>
       <c r="D68">
-        <f>5000 / B68 - 1000</f>
+        <f t="shared" si="24"/>
         <v>1183.406113537118</v>
       </c>
       <c r="E68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="G68">
         <v>3.39</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6099999999999999</v>
       </c>
       <c r="I68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4749.2625368731551</v>
       </c>
       <c r="J68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.3900000000000005E-4</v>
       </c>
     </row>
@@ -10609,11 +10567,11 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C91" si="23">5-B73</f>
+        <f t="shared" ref="C73:C91" si="27">5-B73</f>
         <v>5</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E74" si="24">B73/1000</f>
+        <f t="shared" ref="E73:E74" si="28">B73/1000</f>
         <v>0</v>
       </c>
       <c r="F73">
@@ -10623,32 +10581,32 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H91" si="25">5-G73</f>
+        <f t="shared" ref="H73:H91" si="29">5-G73</f>
         <v>2.68</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I91" si="26">50000 / G73 - 10000</f>
+        <f t="shared" ref="I73:I91" si="30">50000 / G73 - 10000</f>
         <v>11551.724137931036</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:J91" si="27">H73/I73</f>
+        <f t="shared" ref="J73:J91" si="31">H73/I73</f>
         <v>2.3199999999999997E-4</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
-        <f t="shared" ref="A74:A90" si="28">A73+5</f>
+        <f t="shared" ref="A74:A90" si="32">A73+5</f>
         <v>15</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F74">
@@ -10658,575 +10616,575 @@
         <v>2.73</v>
       </c>
       <c r="H74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.27</v>
       </c>
       <c r="I74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>8315.0183150183148</v>
       </c>
       <c r="J74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="B75">
         <v>2.4700000000000002</v>
       </c>
       <c r="C75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D75">
-        <f>5000 / B75 - 1000</f>
+        <f t="shared" ref="D75:D91" si="33">5000 / B75 - 1000</f>
         <v>1024.2914979757084</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E91" si="29">B75/1000 + C75/D75</f>
+        <f t="shared" ref="E75:E91" si="34">B75/1000 + C75/D75</f>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F91" si="30">C75/D75</f>
+        <f t="shared" ref="F75:F91" si="35">C75/D75</f>
         <v>2.47E-3</v>
       </c>
       <c r="G75">
         <v>2.97</v>
       </c>
       <c r="H75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="I75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6835.0168350168351</v>
       </c>
       <c r="J75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.9699999999999996E-4</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
       <c r="B76">
         <v>2.4700000000000002</v>
       </c>
       <c r="C76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D76">
-        <f>5000 / B76 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G76">
         <v>3.15</v>
       </c>
       <c r="H76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.85</v>
       </c>
       <c r="I76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5873.0158730158728</v>
       </c>
       <c r="J76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>30</v>
       </c>
       <c r="B77">
         <v>2.4700000000000002</v>
       </c>
       <c r="C77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D77">
-        <f>5000 / B77 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G77">
         <v>3.28</v>
       </c>
       <c r="H77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.7200000000000002</v>
       </c>
       <c r="I77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5243.9024390243903</v>
       </c>
       <c r="J77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2800000000000006E-4</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
       <c r="B78">
         <v>2.4700000000000002</v>
       </c>
       <c r="C78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D78">
-        <f>5000 / B78 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G78">
         <v>3.39</v>
       </c>
       <c r="H78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.6099999999999999</v>
       </c>
       <c r="I78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4749.2625368731551</v>
       </c>
       <c r="J78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.3900000000000005E-4</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="B79">
         <v>2.4700000000000002</v>
       </c>
       <c r="C79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D79">
-        <f>5000 / B79 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G79">
         <v>3.48</v>
       </c>
       <c r="H79">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.52</v>
       </c>
       <c r="I79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4367.8160919540223</v>
       </c>
       <c r="J79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.4800000000000006E-4</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>45</v>
       </c>
       <c r="B80">
         <v>2.4700000000000002</v>
       </c>
       <c r="C80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D80">
-        <f>5000 / B80 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G80">
         <v>3.54</v>
       </c>
       <c r="H80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.46</v>
       </c>
       <c r="I80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4124.2937853107342</v>
       </c>
       <c r="J80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.5400000000000004E-4</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="B81">
         <v>2.4700000000000002</v>
       </c>
       <c r="C81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D81">
-        <f>5000 / B81 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G81">
         <v>3.6</v>
       </c>
       <c r="H81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3888.8888888888887</v>
       </c>
       <c r="J81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.6000000000000002E-4</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
       <c r="B82">
         <v>2.4700000000000002</v>
       </c>
       <c r="C82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D82">
-        <f>5000 / B82 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G82">
         <v>3.65</v>
       </c>
       <c r="H82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.35</v>
       </c>
       <c r="I82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3698.6301369863013</v>
       </c>
       <c r="J82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.6500000000000004E-4</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>60</v>
       </c>
       <c r="B83">
         <v>2.4700000000000002</v>
       </c>
       <c r="C83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D83">
-        <f>5000 / B83 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G83">
         <v>3.69</v>
       </c>
       <c r="H83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.31</v>
       </c>
       <c r="I83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3550.1355013550146</v>
       </c>
       <c r="J83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.6899999999999992E-4</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>65</v>
       </c>
       <c r="B84">
         <v>2.4700000000000002</v>
       </c>
       <c r="C84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="D84">
-        <f>5000 / B84 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1024.2914979757084</v>
       </c>
       <c r="E84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="F84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.47E-3</v>
       </c>
       <c r="G84">
         <v>3.73</v>
       </c>
       <c r="H84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.27</v>
       </c>
       <c r="I84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3404.8257372654152</v>
       </c>
       <c r="J84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.7300000000000001E-4</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="B85">
         <v>2.48</v>
       </c>
       <c r="C85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D85">
-        <f>5000 / B85 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G85">
         <v>3.76</v>
       </c>
       <c r="H85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.2400000000000002</v>
       </c>
       <c r="I85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3297.8723404255325</v>
       </c>
       <c r="J85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>75</v>
       </c>
       <c r="B86">
         <v>2.48</v>
       </c>
       <c r="C86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D86">
-        <f>5000 / B86 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G86">
         <v>3.79</v>
       </c>
       <c r="H86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.21</v>
       </c>
       <c r="I86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3192.6121372031666</v>
       </c>
       <c r="J86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.7899999999999994E-4</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="B87">
         <v>2.48</v>
       </c>
       <c r="C87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D87">
-        <f>5000 / B87 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G87">
         <v>3.82</v>
       </c>
       <c r="H87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1800000000000002</v>
       </c>
       <c r="I87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3089.0052356020951</v>
       </c>
       <c r="J87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.8199999999999996E-4</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>85</v>
       </c>
       <c r="B88">
         <v>2.48</v>
       </c>
       <c r="C88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D88">
-        <f>5000 / B88 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G88">
         <v>3.84</v>
       </c>
       <c r="H88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="I88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3020.8333333333339</v>
       </c>
       <c r="J88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.8399999999999996E-4</v>
       </c>
     </row>
@@ -11239,74 +11197,74 @@
         <v>2.48</v>
       </c>
       <c r="C89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D89">
-        <f>5000 / B89 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G89">
         <v>3.86</v>
       </c>
       <c r="H89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="I89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2953.3678756476693</v>
       </c>
       <c r="J89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.8599999999999995E-4</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
       <c r="B90">
         <v>2.48</v>
       </c>
       <c r="C90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D90">
-        <f>5000 / B90 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G90">
         <v>3.88</v>
       </c>
       <c r="H90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="I90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2886.5979381443303</v>
       </c>
       <c r="J90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.88E-4</v>
       </c>
     </row>
@@ -11319,34 +11277,34 @@
         <v>2.48</v>
       </c>
       <c r="C91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.52</v>
       </c>
       <c r="D91">
-        <f>5000 / B91 - 1000</f>
+        <f t="shared" si="33"/>
         <v>1016.1290322580646</v>
       </c>
       <c r="E91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.9599999999999991E-3</v>
       </c>
       <c r="F91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>2.4799999999999996E-3</v>
       </c>
       <c r="G91">
         <v>3.9</v>
       </c>
       <c r="H91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2820.5128205128203</v>
       </c>
       <c r="J91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.9000000000000005E-4</v>
       </c>
     </row>
@@ -11430,11 +11388,11 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C114" si="31">5-B96</f>
+        <f t="shared" ref="C96:C114" si="36">5-B96</f>
         <v>5</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96:E97" si="32">B96/1000</f>
+        <f t="shared" ref="E96:E97" si="37">B96/1000</f>
         <v>0</v>
       </c>
       <c r="F96">
@@ -11444,32 +11402,32 @@
         <v>3.57</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H114" si="33">5-G96</f>
+        <f t="shared" ref="H96:H114" si="38">5-G96</f>
         <v>1.4300000000000002</v>
       </c>
       <c r="I96">
-        <f t="shared" ref="I96:I114" si="34">50000 / G96 - 10000</f>
+        <f t="shared" ref="I96:I114" si="39">50000 / G96 - 10000</f>
         <v>4005.6022408963599</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96:J114" si="35">H96/I96</f>
+        <f t="shared" ref="J96:J114" si="40">H96/I96</f>
         <v>3.569999999999999E-4</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97">
-        <f t="shared" ref="A97:A113" si="36">A96+5</f>
+        <f t="shared" ref="A97:A113" si="41">A96+5</f>
         <v>15</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="E97">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F97">
@@ -11479,575 +11437,575 @@
         <v>3.86</v>
       </c>
       <c r="H97">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="I97">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2953.3678756476693</v>
       </c>
       <c r="J97">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>3.8599999999999995E-4</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="B98">
         <v>2.21</v>
       </c>
       <c r="C98">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D98">
-        <f>5000 / B98 - 1000</f>
+        <f t="shared" ref="D98:D114" si="42">5000 / B98 - 1000</f>
         <v>1262.4434389140274</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E114" si="37">B98/1000 + C98/D98</f>
+        <f t="shared" ref="E98:E114" si="43">B98/1000 + C98/D98</f>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F114" si="38">C98/D98</f>
+        <f t="shared" ref="F98:F114" si="44">C98/D98</f>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G98">
         <v>4.0199999999999996</v>
       </c>
       <c r="H98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.98000000000000043</v>
       </c>
       <c r="I98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2437.8109452736335</v>
       </c>
       <c r="J98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.0199999999999991E-4</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="B99">
         <v>2.21</v>
       </c>
       <c r="C99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D99">
-        <f>5000 / B99 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E99">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G99">
         <v>4.13</v>
       </c>
       <c r="H99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.87000000000000011</v>
       </c>
       <c r="I99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>2106.5375302663433</v>
       </c>
       <c r="J99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.1300000000000017E-4</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="B100">
         <v>2.21</v>
       </c>
       <c r="C100">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D100">
-        <f>5000 / B100 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E100">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F100">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G100">
         <v>4.2</v>
       </c>
       <c r="H100">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="I100">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1904.7619047619046</v>
       </c>
       <c r="J100">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.1999999999999996E-4</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>35</v>
       </c>
       <c r="B101">
         <v>2.21</v>
       </c>
       <c r="C101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D101">
-        <f>5000 / B101 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E101">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F101">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G101">
         <v>4.25</v>
       </c>
       <c r="H101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.75</v>
       </c>
       <c r="I101">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1764.7058823529405</v>
       </c>
       <c r="J101">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.2500000000000014E-4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>40</v>
       </c>
       <c r="B102">
         <v>2.21</v>
       </c>
       <c r="C102">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D102">
-        <f>5000 / B102 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G102">
         <v>4.3</v>
       </c>
       <c r="H102">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="I102">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1627.906976744187</v>
       </c>
       <c r="J102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.2999999999999988E-4</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>45</v>
       </c>
       <c r="B103">
         <v>2.21</v>
       </c>
       <c r="C103">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D103">
-        <f>5000 / B103 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F103">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G103">
         <v>4.34</v>
       </c>
       <c r="H103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="I103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1520.737327188941</v>
       </c>
       <c r="J103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.3399999999999982E-4</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="B104">
         <v>2.21</v>
       </c>
       <c r="C104">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D104">
-        <f>5000 / B104 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E104">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G104">
         <v>4.3600000000000003</v>
       </c>
       <c r="H104">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.63999999999999968</v>
       </c>
       <c r="I104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1467.8899082568805</v>
       </c>
       <c r="J104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.3599999999999986E-4</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>55</v>
       </c>
       <c r="B105">
         <v>2.21</v>
       </c>
       <c r="C105">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D105">
-        <f>5000 / B105 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E105">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F105">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G105">
         <v>4.3899999999999997</v>
       </c>
       <c r="H105">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="I105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1389.5216400911177</v>
       </c>
       <c r="J105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.3899999999999977E-4</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>60</v>
       </c>
       <c r="B106">
         <v>2.21</v>
       </c>
       <c r="C106">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D106">
-        <f>5000 / B106 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G106">
         <v>4.41</v>
       </c>
       <c r="H106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.58999999999999986</v>
       </c>
       <c r="I106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1337.8684807256232</v>
       </c>
       <c r="J106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4100000000000004E-4</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>65</v>
       </c>
       <c r="B107">
         <v>2.21</v>
       </c>
       <c r="C107">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D107">
-        <f>5000 / B107 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E107">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F107">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G107">
         <v>4.43</v>
       </c>
       <c r="H107">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="I107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1286.6817155756216</v>
       </c>
       <c r="J107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4299999999999993E-4</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="B108">
         <v>2.21</v>
       </c>
       <c r="C108">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.79</v>
       </c>
       <c r="D108">
-        <f>5000 / B108 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1262.4434389140274</v>
       </c>
       <c r="E108">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4200000000000003E-3</v>
       </c>
       <c r="F108">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2099999999999997E-3</v>
       </c>
       <c r="G108">
         <v>4.4400000000000004</v>
       </c>
       <c r="H108">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.55999999999999961</v>
       </c>
       <c r="I108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1261.2612612612611</v>
       </c>
       <c r="J108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4399999999999973E-4</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>75</v>
       </c>
       <c r="B109">
         <v>2.2200000000000002</v>
       </c>
       <c r="C109">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D109">
-        <f>5000 / B109 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E109">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F109">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G109">
         <v>4.45</v>
       </c>
       <c r="H109">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.54999999999999982</v>
       </c>
       <c r="I109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1235.9550561797751</v>
       </c>
       <c r="J109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4499999999999992E-4</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>80</v>
       </c>
       <c r="B110">
         <v>2.2200000000000002</v>
       </c>
       <c r="C110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D110">
-        <f>5000 / B110 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F110">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G110">
         <v>4.46</v>
       </c>
       <c r="H110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.54</v>
       </c>
       <c r="I110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1210.7623318385649</v>
       </c>
       <c r="J110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4600000000000005E-4</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>85</v>
       </c>
       <c r="B111">
         <v>2.2200000000000002</v>
       </c>
       <c r="C111">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D111">
-        <f>5000 / B111 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F111">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G111">
         <v>4.4800000000000004</v>
       </c>
       <c r="H111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.51999999999999957</v>
       </c>
       <c r="I111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1160.7142857142844</v>
       </c>
       <c r="J111">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4800000000000016E-4</v>
       </c>
     </row>
@@ -12060,74 +12018,74 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C112">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D112">
-        <f>5000 / B112 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F112">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G112">
         <v>4.4800000000000004</v>
       </c>
       <c r="H112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.51999999999999957</v>
       </c>
       <c r="I112">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1160.7142857142844</v>
       </c>
       <c r="J112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4800000000000016E-4</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>95</v>
       </c>
       <c r="B113">
         <v>2.2200000000000002</v>
       </c>
       <c r="C113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D113">
-        <f>5000 / B113 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F113">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G113">
         <v>4.49</v>
       </c>
       <c r="H113">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.50999999999999979</v>
       </c>
       <c r="I113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1135.8574610244978</v>
       </c>
       <c r="J113">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4900000000000023E-4</v>
       </c>
     </row>
@@ -12140,34 +12098,34 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.78</v>
       </c>
       <c r="D114">
-        <f>5000 / B114 - 1000</f>
+        <f t="shared" si="42"/>
         <v>1252.2522522522522</v>
       </c>
       <c r="E114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4.4399999999999995E-3</v>
       </c>
       <c r="F114">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.2199999999999998E-3</v>
       </c>
       <c r="G114">
         <v>4.5</v>
       </c>
       <c r="H114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1111.1111111111113</v>
       </c>
       <c r="J114">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>4.4999999999999993E-4</v>
       </c>
     </row>

--- a/report/lab_4/data.xlsx
+++ b/report/lab_4/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xoepe\Documents\ECE303\report\lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D5D3F-554F-426D-8907-8EF923186B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A253972-0B3F-464F-9040-539B74B6CDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{A9081A4D-6623-45BE-A5E7-61C4D64EFFD9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9081A4D-6623-45BE-A5E7-61C4D64EFFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7627,16 +7627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>882836</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>121113</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1061430</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1191682</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>151554</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>401108</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7665,16 +7665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1217751</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76776</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467657</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276440</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>107217</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>109752</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8003,29 +8003,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6B3F3F-C515-4AFF-9C80-36DAFE60DF03}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="80" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46484375" customWidth="1"/>
-    <col min="3" max="3" width="13.53125" customWidth="1"/>
-    <col min="4" max="5" width="18.86328125" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" customWidth="1"/>
-    <col min="8" max="8" width="19.265625" customWidth="1"/>
-    <col min="9" max="9" width="23.265625" customWidth="1"/>
-    <col min="10" max="10" width="17.46484375" customWidth="1"/>
-    <col min="11" max="11" width="23.53125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+5</f>
         <v>10</v>
@@ -8126,7 +8126,7 @@
         <v>5.3000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A21" si="5">A4+5</f>
         <v>15</v>
@@ -8161,7 +8161,7 @@
         <v>7.9000000000000009E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -8201,7 +8201,7 @@
         <v>1.0100000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -8241,7 +8241,7 @@
         <v>1.1899999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -8281,7 +8281,7 @@
         <v>1.34E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -8321,7 +8321,7 @@
         <v>1.4799999999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -8361,7 +8361,7 @@
         <v>1.5999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -8401,7 +8401,7 @@
         <v>1.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -8441,7 +8441,7 @@
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -8481,7 +8481,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -8521,7 +8521,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -8561,7 +8561,7 @@
         <v>2.05E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -8601,7 +8601,7 @@
         <v>2.12E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -8641,7 +8641,7 @@
         <v>2.1799999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -8681,7 +8681,7 @@
         <v>2.2400000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -8721,7 +8721,7 @@
         <v>2.2899999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>A19+5</f>
         <v>90</v>
@@ -8761,7 +8761,7 @@
         <v>2.3400000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -8801,7 +8801,7 @@
         <v>2.3900000000000004E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A21+5</f>
         <v>100</v>
@@ -8841,12 +8841,12 @@
         <v>2.4300000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A26+5</f>
         <v>10</v>
@@ -8947,7 +8947,7 @@
         <v>4.4999999999999996E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28:A44" si="14">A27+5</f>
         <v>15</v>
@@ -8982,7 +8982,7 @@
         <v>6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -9022,7 +9022,7 @@
         <v>8.599999999999999E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -9062,7 +9062,7 @@
         <v>1.0200000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -9102,7 +9102,7 @@
         <v>1.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -9142,7 +9142,7 @@
         <v>1.2900000000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -9182,7 +9182,7 @@
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -9222,7 +9222,7 @@
         <v>1.5099999999999998E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -9262,7 +9262,7 @@
         <v>1.5999999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -9302,7 +9302,7 @@
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -9342,7 +9342,7 @@
         <v>1.7600000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -9382,7 +9382,7 @@
         <v>1.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="14"/>
         <v>70</v>
@@ -9422,7 +9422,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="14"/>
         <v>75</v>
@@ -9462,7 +9462,7 @@
         <v>1.9599999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="14"/>
         <v>80</v>
@@ -9502,7 +9502,7 @@
         <v>2.0099999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="14"/>
         <v>85</v>
@@ -9542,7 +9542,7 @@
         <v>2.0699999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A42+5</f>
         <v>90</v>
@@ -9582,7 +9582,7 @@
         <v>2.12E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="14"/>
         <v>95</v>
@@ -9622,7 +9622,7 @@
         <v>2.1600000000000002E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A44+5</f>
         <v>100</v>
@@ -9662,12 +9662,12 @@
         <v>2.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>1.1299999999999998E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>A49+5</f>
         <v>10</v>
@@ -9772,7 +9772,7 @@
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ref="A51:A67" si="23">A50+5</f>
         <v>15</v>
@@ -9807,7 +9807,7 @@
         <v>2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="23"/>
         <v>20</v>
@@ -9847,7 +9847,7 @@
         <v>2.3999999999999995E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="23"/>
         <v>25</v>
@@ -9887,7 +9887,7 @@
         <v>2.5900000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="23"/>
         <v>30</v>
@@ -9927,7 +9927,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="23"/>
         <v>35</v>
@@ -9967,7 +9967,7 @@
         <v>2.8300000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="23"/>
         <v>40</v>
@@ -10007,7 +10007,7 @@
         <v>2.9200000000000005E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="23"/>
         <v>45</v>
@@ -10047,7 +10047,7 @@
         <v>2.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="23"/>
         <v>50</v>
@@ -10087,7 +10087,7 @@
         <v>3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="23"/>
         <v>55</v>
@@ -10127,7 +10127,7 @@
         <v>3.1000000000000005E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="23"/>
         <v>60</v>
@@ -10167,7 +10167,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="23"/>
         <v>65</v>
@@ -10207,7 +10207,7 @@
         <v>3.19E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="23"/>
         <v>70</v>
@@ -10247,7 +10247,7 @@
         <v>3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="23"/>
         <v>75</v>
@@ -10287,7 +10287,7 @@
         <v>3.2599999999999996E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="23"/>
         <v>80</v>
@@ -10327,7 +10327,7 @@
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="23"/>
         <v>85</v>
@@ -10367,7 +10367,7 @@
         <v>3.3200000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>A65+5</f>
         <v>90</v>
@@ -10407,7 +10407,7 @@
         <v>3.3399999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="23"/>
         <v>95</v>
@@ -10447,7 +10447,7 @@
         <v>3.3700000000000006E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A67+5</f>
         <v>100</v>
@@ -10487,12 +10487,12 @@
         <v>3.3900000000000005E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>A72+5</f>
         <v>10</v>
@@ -10593,7 +10593,7 @@
         <v>2.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ref="A74:A90" si="32">A73+5</f>
         <v>15</v>
@@ -10628,7 +10628,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="32"/>
         <v>20</v>
@@ -10668,7 +10668,7 @@
         <v>2.9699999999999996E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="32"/>
         <v>25</v>
@@ -10708,7 +10708,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="32"/>
         <v>30</v>
@@ -10748,7 +10748,7 @@
         <v>3.2800000000000006E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="32"/>
         <v>35</v>
@@ -10788,7 +10788,7 @@
         <v>3.3900000000000005E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="32"/>
         <v>40</v>
@@ -10828,7 +10828,7 @@
         <v>3.4800000000000006E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="32"/>
         <v>45</v>
@@ -10868,7 +10868,7 @@
         <v>3.5400000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="32"/>
         <v>50</v>
@@ -10908,7 +10908,7 @@
         <v>3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="32"/>
         <v>55</v>
@@ -10948,7 +10948,7 @@
         <v>3.6500000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="32"/>
         <v>60</v>
@@ -10988,7 +10988,7 @@
         <v>3.6899999999999992E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="32"/>
         <v>65</v>
@@ -11028,7 +11028,7 @@
         <v>3.7300000000000001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="32"/>
         <v>70</v>
@@ -11068,7 +11068,7 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="32"/>
         <v>75</v>
@@ -11108,7 +11108,7 @@
         <v>3.7899999999999994E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="32"/>
         <v>80</v>
@@ -11148,7 +11148,7 @@
         <v>3.8199999999999996E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="32"/>
         <v>85</v>
@@ -11188,7 +11188,7 @@
         <v>3.8399999999999996E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>A88+5</f>
         <v>90</v>
@@ -11228,7 +11228,7 @@
         <v>3.8599999999999995E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="32"/>
         <v>95</v>
@@ -11268,7 +11268,7 @@
         <v>3.88E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>A90+5</f>
         <v>100</v>
@@ -11308,12 +11308,12 @@
         <v>3.9000000000000005E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>2.8999999999999995E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>A95+5</f>
         <v>10</v>
@@ -11414,7 +11414,7 @@
         <v>3.569999999999999E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A113" si="41">A96+5</f>
         <v>15</v>
@@ -11449,7 +11449,7 @@
         <v>3.8599999999999995E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="41"/>
         <v>20</v>
@@ -11489,7 +11489,7 @@
         <v>4.0199999999999991E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="41"/>
         <v>25</v>
@@ -11529,7 +11529,7 @@
         <v>4.1300000000000017E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="41"/>
         <v>30</v>
@@ -11569,7 +11569,7 @@
         <v>4.1999999999999996E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="41"/>
         <v>35</v>
@@ -11609,7 +11609,7 @@
         <v>4.2500000000000014E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="41"/>
         <v>40</v>
@@ -11649,7 +11649,7 @@
         <v>4.2999999999999988E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="41"/>
         <v>45</v>
@@ -11689,7 +11689,7 @@
         <v>4.3399999999999982E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="41"/>
         <v>50</v>
@@ -11729,7 +11729,7 @@
         <v>4.3599999999999986E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="41"/>
         <v>55</v>
@@ -11769,7 +11769,7 @@
         <v>4.3899999999999977E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="41"/>
         <v>60</v>
@@ -11809,7 +11809,7 @@
         <v>4.4100000000000004E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="41"/>
         <v>65</v>
@@ -11849,7 +11849,7 @@
         <v>4.4299999999999993E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="41"/>
         <v>70</v>
@@ -11889,7 +11889,7 @@
         <v>4.4399999999999973E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="41"/>
         <v>75</v>
@@ -11929,7 +11929,7 @@
         <v>4.4499999999999992E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="41"/>
         <v>80</v>
@@ -11969,7 +11969,7 @@
         <v>4.4600000000000005E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="41"/>
         <v>85</v>
@@ -12009,7 +12009,7 @@
         <v>4.4800000000000016E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>A111+5</f>
         <v>90</v>
@@ -12049,7 +12049,7 @@
         <v>4.4800000000000016E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="41"/>
         <v>95</v>
@@ -12089,7 +12089,7 @@
         <v>4.4900000000000023E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>A113+5</f>
         <v>100</v>
